--- a/NEW Templates/NEW Template_Produit_ASL_Crystalchain.xlsx
+++ b/NEW Templates/NEW Template_Produit_ASL_Crystalchain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathias/Crystalchain Dropbox/Equipe/Projets/PRIME/AGEC/40 - Clients/Monoprix/Batch Fournisseurs/NEW Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\7 - Projects\Trace\PRIME\AGEC\40 - Clients\Monoprix\Batch Fournisseurs\NEW Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62508321-B58A-0A4C-996F-DAE86EE3513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E365720-F9CB-4FD4-AEF4-76FC08615A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17440" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -1955,7 +1955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{A15135ED-DE59-954C-B28F-F4EAA451FF41}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{C6A77EC7-0441-4EC6-A09A-FCD94248720D}">
       <text>
         <r>
           <rPr>
@@ -2779,7 +2779,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
   <si>
     <t>TraceType</t>
   </si>
@@ -3077,12 +3077,16 @@
   <si>
     <t>Casque bleu, réglable 50-56 cm, coque ABS, mousse intérieure.</t>
   </si>
+  <si>
+    <t>Incorporation de matière recyclée (%)
+Incorporation of recycled material (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3311,9 +3315,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3370,6 +3371,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4073,101 +4077,6 @@
             </a:rPr>
             <a:t>Recyclability</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>99338</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>871502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1545167</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1337364</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B709B350-95F9-5946-B9DA-DAFA5B045159}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13011005" y="871502"/>
-          <a:ext cx="1445829" cy="465862"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Incorporation de matière recyclée</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-FR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1" u="none">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Incorporation of recycled material</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100" b="1" u="none" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9167,7 +9076,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -9179,135 +9088,135 @@
     <col min="12" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>72</v>
       </c>
       <c r="H9" t="s">
@@ -9320,36 +9229,36 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="H11" t="s">
@@ -9362,45 +9271,45 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:10" hidden="1">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="G14" s="12" t="s">
+      <c r="E14" s="8"/>
+      <c r="G14" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H14" t="s">
@@ -9410,21 +9319,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="G15" s="12" t="s">
+      <c r="E15" s="8"/>
+      <c r="G15" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H15" t="s">
@@ -9437,36 +9346,36 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H17" t="s">
@@ -9482,47 +9391,47 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="G20" s="12" t="s">
+      <c r="E20" s="8"/>
+      <c r="G20" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H20" t="s">
@@ -9532,163 +9441,163 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
       <c r="G32" t="s">
         <v>35</v>
       </c>
@@ -9707,11 +9616,11 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="73" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -9742,96 +9651,96 @@
     <col min="29" max="29" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="24" customFormat="1" ht="64" hidden="1" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:29" s="23" customFormat="1" ht="64" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="106" customHeight="1">
+    <row r="2" spans="1:29" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9847,7 +9756,7 @@
       <c r="E2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9859,10 +9768,10 @@
       <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -9895,10 +9804,10 @@
       <c r="U2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -9916,202 +9825,214 @@
       <c r="AB2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="19" customFormat="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>4006381333931</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="19" customFormat="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>5012345678901</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>70</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="19" customFormat="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>9780201379624</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
+        <v>20</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3607343214682</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="P6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V5" s="19" t="s">
-        <v>96</v>
+      <c r="V6" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="19" customFormat="1">
-      <c r="A6" s="19" t="s">
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="23">
-        <v>3607343214682</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="C7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="22">
+        <v>8806085947126</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="18">
+        <v>100</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S6" s="19" t="s">
+      <c r="S7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="19" t="s">
-        <v>97</v>
+      <c r="V7" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="19" customFormat="1">
-      <c r="A7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="23">
-        <v>8806085947126</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="24"/>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
